--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -623,11 +622,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-285337088"/>
-        <c:axId val="-285325344"/>
+        <c:axId val="-2054349136"/>
+        <c:axId val="-2039523536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-285337088"/>
+        <c:axId val="-2054349136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -728,7 +726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-285325344"/>
+        <c:crossAx val="-2039523536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-285325344"/>
+        <c:axId val="-2039523536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -840,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-285337088"/>
+        <c:crossAx val="-2054349136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -854,7 +851,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -977,7 +973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1230,11 +1225,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-253723056"/>
-        <c:axId val="-253714800"/>
+        <c:axId val="-2018055008"/>
+        <c:axId val="-2018046672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-253723056"/>
+        <c:axId val="-2018055008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1260,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1330,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253714800"/>
+        <c:crossAx val="-2018046672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,7 +1332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-253714800"/>
+        <c:axId val="-2018046672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1442,7 +1435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253723056"/>
+        <c:crossAx val="-2018055008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1456,7 +1449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,7 +1574,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1687,7 +1678,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1808,7 +1798,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1871,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-253692624"/>
-        <c:axId val="-253687760"/>
+        <c:axId val="-2017972592"/>
+        <c:axId val="-2017967776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-253692624"/>
+        <c:axId val="-2017972592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253687760"/>
+        <c:crossAx val="-2017967776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-253687760"/>
+        <c:axId val="-2017967776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-253692624"/>
+        <c:crossAx val="-2017972592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1976,7 +1965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2116,7 +2104,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,7 +2208,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2342,7 +2328,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2405,11 +2390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-253563616"/>
-        <c:axId val="-253558848"/>
+        <c:axId val="-2017876048"/>
+        <c:axId val="-2017871232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-253563616"/>
+        <c:axId val="-2017876048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253558848"/>
+        <c:crossAx val="-2017871232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2460,7 +2445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-253558848"/>
+        <c:axId val="-2017871232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2481,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-253563616"/>
+        <c:crossAx val="-2017876048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2510,7 +2495,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2812,11 +2796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-215548848"/>
-        <c:axId val="-212205456"/>
+        <c:axId val="-2021079856"/>
+        <c:axId val="-2021071616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-215548848"/>
+        <c:axId val="-2021079856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,8 +2884,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2924,12 +2909,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212205456"/>
+        <c:crossAx val="-2021071616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-212205456"/>
+        <c:axId val="-2021071616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-215548848"/>
+        <c:crossAx val="-2021079856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3308,11 +3293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-192811808"/>
-        <c:axId val="-215547024"/>
+        <c:axId val="-2017782496"/>
+        <c:axId val="-2017774416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-192811808"/>
+        <c:axId val="-2017782496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,8 +3378,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3417,12 +3403,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-215547024"/>
+        <c:crossAx val="-2017774416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-215547024"/>
+        <c:axId val="-2017774416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,7 +3523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-192811808"/>
+        <c:crossAx val="-2017782496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3803,11 +3789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-186897424"/>
-        <c:axId val="-167591984"/>
+        <c:axId val="-2017724880"/>
+        <c:axId val="-2017716448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-186897424"/>
+        <c:axId val="-2017724880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,8 +3878,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3916,12 +3903,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-167591984"/>
+        <c:crossAx val="-2017716448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-167591984"/>
+        <c:axId val="-2017716448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-186897424"/>
+        <c:crossAx val="-2017724880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4301,11 +4288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-211147840"/>
-        <c:axId val="-184703888"/>
+        <c:axId val="-2017665088"/>
+        <c:axId val="-2017657040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-211147840"/>
+        <c:axId val="-2017665088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,8 +4372,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4409,12 +4397,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-184703888"/>
+        <c:crossAx val="-2017657040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-184703888"/>
+        <c:axId val="-2017657040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-211147840"/>
+        <c:crossAx val="-2017665088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9204,7 +9192,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9240,7 +9228,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9276,7 +9264,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9312,7 +9300,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10044,8 +10032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
